--- a/Files/行业数据/03_能源.xlsx
+++ b/Files/行业数据/03_能源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowHeight="13380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一次能源生产总量（万吨标准煤）" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
   <si>
     <t>年份</t>
   </si>
@@ -39,63 +39,28 @@
     <t>全省能源生产总量</t>
   </si>
   <si>
-    <t>占能源生产总量的比重(%)</t>
+    <t>原煤比重</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>份</t>
-    </r>
+    <t>原油比重</t>
   </si>
   <si>
-    <t>原煤</t>
+    <t>天然气比重</t>
   </si>
   <si>
-    <t>原油</t>
-  </si>
-  <si>
-    <t>天然气</t>
-  </si>
-  <si>
-    <t>一次电力</t>
+    <t>一次电力比重</t>
   </si>
   <si>
     <t>全省能源消费总量</t>
   </si>
   <si>
-    <t>占能源消费总量的比重(%)</t>
+    <t>煤炭比重</t>
   </si>
   <si>
-    <t>煤炭</t>
+    <t>石油比重</t>
   </si>
   <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>电力</t>
+    <t>电力比重</t>
   </si>
   <si>
     <t>茫崖</t>
@@ -252,26 +217,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/10a</t>
-    </r>
   </si>
   <si>
     <t>站名</t>
@@ -947,9 +892,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,15 +899,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,643 +1238,626 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="14.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="9"/>
-    <col min="4" max="4" width="10.375" style="9"/>
-    <col min="5" max="5" width="9.625" style="9"/>
-    <col min="6" max="6" width="10.375" style="9"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="14.1296296296296" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="8"/>
+    <col min="4" max="4" width="10.3796296296296" style="8"/>
+    <col min="5" max="5" width="9.62962962962963" style="8"/>
+    <col min="6" max="6" width="10.3796296296296" style="8"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="14" customHeight="1" spans="1:6">
-      <c r="A3" s="10">
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:6">
+      <c r="A2" s="9">
         <v>1990</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B2" s="13">
         <v>606.46</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C2" s="13">
         <v>32.28</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D2" s="13">
         <v>19.08</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E2" s="13">
         <v>1.02</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F2" s="13">
         <v>47.62</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>1991</v>
+      </c>
+      <c r="B3" s="13">
+        <v>552.26</v>
+      </c>
+      <c r="C3" s="13">
+        <v>31.82</v>
+      </c>
+      <c r="D3" s="13">
+        <v>26.39</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="F3" s="13">
+        <v>40.14</v>
+      </c>
+    </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
-        <v>1991</v>
-      </c>
-      <c r="B4" s="14">
-        <v>552.26</v>
-      </c>
-      <c r="C4" s="14">
-        <v>31.82</v>
-      </c>
-      <c r="D4" s="14">
-        <v>26.39</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1.65</v>
-      </c>
-      <c r="F4" s="14">
-        <v>40.14</v>
+      <c r="A4" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B4" s="13">
+        <v>504.85</v>
+      </c>
+      <c r="C4" s="13">
+        <v>34.32</v>
+      </c>
+      <c r="D4" s="13">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="F4" s="13">
+        <v>34.43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
-        <v>1992</v>
-      </c>
-      <c r="B5" s="14">
-        <v>504.85</v>
-      </c>
-      <c r="C5" s="14">
-        <v>34.32</v>
-      </c>
-      <c r="D5" s="14">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="F5" s="14">
-        <v>34.43</v>
+      <c r="A5" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="13">
+        <v>559.17</v>
+      </c>
+      <c r="C5" s="13">
+        <v>25.29</v>
+      </c>
+      <c r="D5" s="13">
+        <v>27.69</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>46.01</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
-        <v>1993</v>
-      </c>
-      <c r="B6" s="14">
-        <v>559.17</v>
-      </c>
-      <c r="C6" s="14">
-        <v>25.29</v>
-      </c>
-      <c r="D6" s="14">
-        <v>27.69</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <v>46.01</v>
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="13">
+        <v>619.47</v>
+      </c>
+      <c r="C6" s="13">
+        <v>26.12</v>
+      </c>
+      <c r="D6" s="13">
+        <v>26.06</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.31</v>
+      </c>
+      <c r="F6" s="13">
+        <v>46.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
-        <v>1994</v>
-      </c>
-      <c r="B7" s="14">
-        <v>619.47</v>
-      </c>
-      <c r="C7" s="14">
-        <v>26.12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>26.06</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1.31</v>
-      </c>
-      <c r="F7" s="14">
-        <v>46.5</v>
+      <c r="A7" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="13">
+        <v>571.57</v>
+      </c>
+      <c r="C7" s="13">
+        <v>29.74</v>
+      </c>
+      <c r="D7" s="13">
+        <v>30.41</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.36</v>
+      </c>
+      <c r="F7" s="13">
+        <v>38.49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
-        <v>1995</v>
-      </c>
-      <c r="B8" s="14">
-        <v>571.57</v>
-      </c>
-      <c r="C8" s="14">
-        <v>29.74</v>
-      </c>
-      <c r="D8" s="14">
-        <v>30.41</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1.36</v>
-      </c>
-      <c r="F8" s="14">
-        <v>38.49</v>
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="13">
+        <v>584.71</v>
+      </c>
+      <c r="C8" s="13">
+        <v>35.34</v>
+      </c>
+      <c r="D8" s="13">
+        <v>33.32</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2.49</v>
+      </c>
+      <c r="F8" s="13">
+        <v>28.85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
-        <v>1996</v>
-      </c>
-      <c r="B9" s="14">
-        <v>584.71</v>
-      </c>
-      <c r="C9" s="14">
-        <v>35.34</v>
-      </c>
-      <c r="D9" s="14">
-        <v>33.32</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2.49</v>
-      </c>
-      <c r="F9" s="14">
-        <v>28.85</v>
+      <c r="A9" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="13">
+        <v>672.89</v>
+      </c>
+      <c r="C9" s="13">
+        <v>28.79</v>
+      </c>
+      <c r="D9" s="13">
+        <v>34.02</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.97</v>
+      </c>
+      <c r="F9" s="13">
+        <v>33.22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="14">
-        <v>672.89</v>
-      </c>
-      <c r="C10" s="14">
-        <v>28.79</v>
-      </c>
-      <c r="D10" s="14">
-        <v>34.02</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3.97</v>
-      </c>
-      <c r="F10" s="14">
-        <v>33.22</v>
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="13">
+        <v>771</v>
+      </c>
+      <c r="C10" s="13">
+        <v>24.9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>32.63</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.22</v>
+      </c>
+      <c r="F10" s="13">
+        <v>38.25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10">
-        <v>1998</v>
-      </c>
-      <c r="B11" s="14">
-        <v>771</v>
-      </c>
-      <c r="C11" s="14">
-        <v>24.9</v>
-      </c>
-      <c r="D11" s="14">
-        <v>32.63</v>
-      </c>
-      <c r="E11" s="14">
-        <v>4.22</v>
-      </c>
-      <c r="F11" s="14">
-        <v>38.25</v>
+      <c r="A11" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="13">
+        <v>885.89</v>
+      </c>
+      <c r="C11" s="13">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13">
+        <v>30.57</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4.76</v>
+      </c>
+      <c r="F11" s="13">
+        <v>41.67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B12" s="14">
-        <v>885.89</v>
-      </c>
-      <c r="C12" s="14">
-        <v>23</v>
-      </c>
-      <c r="D12" s="14">
-        <v>30.57</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.76</v>
-      </c>
-      <c r="F12" s="14">
-        <v>41.67</v>
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="13">
+        <v>937.9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>16.79</v>
+      </c>
+      <c r="D12" s="13">
+        <v>30.46</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5.06</v>
+      </c>
+      <c r="F12" s="13">
+        <v>47.69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="14">
-        <v>937.9</v>
-      </c>
-      <c r="C13" s="14">
-        <v>16.79</v>
-      </c>
-      <c r="D13" s="14">
-        <v>30.46</v>
-      </c>
-      <c r="E13" s="14">
-        <v>5.06</v>
-      </c>
-      <c r="F13" s="14">
-        <v>47.69</v>
+      <c r="A13" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="13">
+        <v>907.05</v>
+      </c>
+      <c r="C13" s="13">
+        <v>13.31</v>
+      </c>
+      <c r="D13" s="13">
+        <v>32.44</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8.76</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45.49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B14" s="14">
-        <v>907.05</v>
-      </c>
-      <c r="C14" s="14">
-        <v>13.31</v>
-      </c>
-      <c r="D14" s="14">
-        <v>32.44</v>
-      </c>
-      <c r="E14" s="14">
-        <v>8.76</v>
-      </c>
-      <c r="F14" s="14">
-        <v>45.49</v>
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="13">
+        <v>974.46</v>
+      </c>
+      <c r="C14" s="13">
+        <v>18.31</v>
+      </c>
+      <c r="D14" s="13">
+        <v>31.38</v>
+      </c>
+      <c r="E14" s="13">
+        <v>14.34</v>
+      </c>
+      <c r="F14" s="13">
+        <v>35.97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="14">
-        <v>974.46</v>
-      </c>
-      <c r="C15" s="14">
-        <v>18.31</v>
-      </c>
-      <c r="D15" s="14">
-        <v>31.38</v>
-      </c>
-      <c r="E15" s="14">
-        <v>14.34</v>
-      </c>
-      <c r="F15" s="14">
-        <v>35.97</v>
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="13">
+        <v>990.14</v>
+      </c>
+      <c r="C15" s="13">
+        <v>22.4</v>
+      </c>
+      <c r="D15" s="13">
+        <v>31.75</v>
+      </c>
+      <c r="E15" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="F15" s="13">
+        <v>26.95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B16" s="14">
-        <v>990.14</v>
-      </c>
-      <c r="C16" s="14">
-        <v>22.4</v>
-      </c>
-      <c r="D16" s="14">
-        <v>31.75</v>
-      </c>
-      <c r="E16" s="14">
-        <v>18.9</v>
-      </c>
-      <c r="F16" s="14">
-        <v>26.95</v>
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1226.3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>23.92</v>
+      </c>
+      <c r="D16" s="13">
+        <v>25.86</v>
+      </c>
+      <c r="E16" s="13">
+        <v>17.76</v>
+      </c>
+      <c r="F16" s="13">
+        <v>32.46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B17" s="14">
-        <v>1226.3</v>
-      </c>
-      <c r="C17" s="14">
-        <v>23.92</v>
-      </c>
-      <c r="D17" s="14">
-        <v>25.86</v>
-      </c>
-      <c r="E17" s="14">
-        <v>17.76</v>
-      </c>
-      <c r="F17" s="14">
-        <v>32.46</v>
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1867.27</v>
+      </c>
+      <c r="C17" s="13">
+        <v>26.92</v>
+      </c>
+      <c r="D17" s="13">
+        <v>16.95</v>
+      </c>
+      <c r="E17" s="13">
+        <v>15.86</v>
+      </c>
+      <c r="F17" s="13">
+        <v>40.27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B18" s="14">
-        <v>1867.27</v>
-      </c>
-      <c r="C18" s="14">
-        <v>26.92</v>
-      </c>
-      <c r="D18" s="14">
-        <v>16.95</v>
-      </c>
-      <c r="E18" s="14">
-        <v>15.86</v>
-      </c>
-      <c r="F18" s="14">
-        <v>40.27</v>
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2113.85</v>
+      </c>
+      <c r="C18" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="D18" s="13">
+        <v>15.07</v>
+      </c>
+      <c r="E18" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="F18" s="13">
+        <v>44.83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="14">
-        <v>2113.85</v>
-      </c>
-      <c r="C19" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="D19" s="14">
-        <v>15.07</v>
-      </c>
-      <c r="E19" s="14">
-        <v>14.5</v>
-      </c>
-      <c r="F19" s="14">
-        <v>44.83</v>
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2458.17</v>
+      </c>
+      <c r="C19" s="13">
+        <v>32.35</v>
+      </c>
+      <c r="D19" s="13">
+        <v>12.82</v>
+      </c>
+      <c r="E19" s="13">
+        <v>18.56</v>
+      </c>
+      <c r="F19" s="13">
+        <v>36.27</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B20" s="14">
-        <v>2458.17</v>
-      </c>
-      <c r="C20" s="14">
-        <v>32.35</v>
-      </c>
-      <c r="D20" s="14">
-        <v>12.82</v>
-      </c>
-      <c r="E20" s="14">
-        <v>18.56</v>
-      </c>
-      <c r="F20" s="14">
-        <v>36.27</v>
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2857.42</v>
+      </c>
+      <c r="C20" s="13">
+        <v>36.66</v>
+      </c>
+      <c r="D20" s="13">
+        <v>11.02</v>
+      </c>
+      <c r="E20" s="13">
+        <v>20.32</v>
+      </c>
+      <c r="F20" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B21" s="14">
-        <v>2857.42</v>
-      </c>
-      <c r="C21" s="14">
-        <v>36.66</v>
-      </c>
-      <c r="D21" s="14">
-        <v>11.02</v>
-      </c>
-      <c r="E21" s="14">
-        <v>20.32</v>
-      </c>
-      <c r="F21" s="14">
-        <v>32</v>
+      <c r="A21" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3219.77</v>
+      </c>
+      <c r="C21" s="13">
+        <v>39.41</v>
+      </c>
+      <c r="D21" s="13">
+        <v>8.27</v>
+      </c>
+      <c r="E21" s="13">
+        <v>17.79</v>
+      </c>
+      <c r="F21" s="13">
+        <v>34.53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="14">
-        <v>3219.77</v>
-      </c>
-      <c r="C22" s="14">
-        <v>39.41</v>
-      </c>
-      <c r="D22" s="14">
-        <v>8.27</v>
-      </c>
-      <c r="E22" s="14">
-        <v>17.79</v>
-      </c>
-      <c r="F22" s="14">
-        <v>34.53</v>
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4005.82</v>
+      </c>
+      <c r="C22" s="13">
+        <v>41.07</v>
+      </c>
+      <c r="D22" s="13">
+        <v>6.64</v>
+      </c>
+      <c r="E22" s="13">
+        <v>18.63</v>
+      </c>
+      <c r="F22" s="13">
+        <v>33.67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B23" s="14">
-        <v>4005.82</v>
-      </c>
-      <c r="C23" s="14">
-        <v>41.07</v>
-      </c>
-      <c r="D23" s="14">
-        <v>6.64</v>
-      </c>
-      <c r="E23" s="14">
-        <v>18.63</v>
-      </c>
-      <c r="F23" s="14">
-        <v>33.67</v>
+      <c r="A23" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="13">
+        <v>4035.16</v>
+      </c>
+      <c r="C23" s="13">
+        <v>41.27</v>
+      </c>
+      <c r="D23" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="E23" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="F23" s="13">
+        <v>31.33</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B24" s="14">
-        <v>4035.16</v>
-      </c>
-      <c r="C24" s="14">
-        <v>41.27</v>
-      </c>
-      <c r="D24" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="E24" s="14">
-        <v>20.5</v>
-      </c>
-      <c r="F24" s="14">
-        <v>31.33</v>
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="13">
+        <v>4631.37</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43.59</v>
+      </c>
+      <c r="D24" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="E24" s="13">
+        <v>17.34</v>
+      </c>
+      <c r="F24" s="13">
+        <v>32.75</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B25" s="14">
-        <v>4631.37</v>
-      </c>
-      <c r="C25" s="14">
-        <v>43.59</v>
-      </c>
-      <c r="D25" s="14">
-        <v>6.32</v>
-      </c>
-      <c r="E25" s="14">
-        <v>17.34</v>
-      </c>
-      <c r="F25" s="14">
-        <v>32.75</v>
+      <c r="A25" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="13">
+        <v>5068.33</v>
+      </c>
+      <c r="C25" s="13">
+        <v>48.05</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6.05</v>
+      </c>
+      <c r="E25" s="13">
+        <v>16.99</v>
+      </c>
+      <c r="F25" s="13">
+        <v>28.91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="14">
-        <v>5068.33</v>
-      </c>
-      <c r="C26" s="14">
-        <v>48.05</v>
-      </c>
-      <c r="D26" s="14">
-        <v>6.05</v>
-      </c>
-      <c r="E26" s="14">
-        <v>16.99</v>
-      </c>
-      <c r="F26" s="14">
-        <v>28.91</v>
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="13">
+        <v>4099.4</v>
+      </c>
+      <c r="C26" s="13">
+        <v>33.47</v>
+      </c>
+      <c r="D26" s="13">
+        <v>7.67</v>
+      </c>
+      <c r="E26" s="13">
+        <v>21.26</v>
+      </c>
+      <c r="F26" s="13">
+        <v>37.6</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="14">
-        <v>4099.4</v>
-      </c>
-      <c r="C27" s="14">
-        <v>33.47</v>
-      </c>
-      <c r="D27" s="14">
-        <v>7.67</v>
-      </c>
-      <c r="E27" s="14">
-        <v>21.26</v>
-      </c>
-      <c r="F27" s="14">
-        <v>37.6</v>
+      <c r="A27" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3298.88</v>
+      </c>
+      <c r="C27" s="13">
+        <v>18.17</v>
+      </c>
+      <c r="D27" s="13">
+        <v>9.66</v>
+      </c>
+      <c r="E27" s="13">
+        <v>24.74</v>
+      </c>
+      <c r="F27" s="13">
+        <v>47.43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="14">
-        <v>3298.88</v>
-      </c>
-      <c r="C28" s="14">
-        <v>18.17</v>
-      </c>
-      <c r="D28" s="14">
-        <v>9.66</v>
-      </c>
-      <c r="E28" s="14">
-        <v>24.74</v>
-      </c>
-      <c r="F28" s="14">
-        <v>47.43</v>
+      <c r="A28" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3003.89</v>
+      </c>
+      <c r="C28" s="13">
+        <v>18.7213161424896</v>
+      </c>
+      <c r="D28" s="13">
+        <v>10.5103794423732</v>
+      </c>
+      <c r="E28" s="13">
+        <v>26.9241573490817</v>
+      </c>
+      <c r="F28" s="13">
+        <v>43.8441470660555</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B29" s="14">
-        <v>3003.89</v>
-      </c>
-      <c r="C29" s="14">
-        <v>18.7213161424896</v>
-      </c>
-      <c r="D29" s="14">
-        <v>10.5103794423732</v>
-      </c>
-      <c r="E29" s="14">
-        <v>26.9241573490817</v>
-      </c>
-      <c r="F29" s="14">
-        <v>43.8441470660555</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1938,609 +1866,594 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="16.625" style="10" customWidth="1"/>
-    <col min="3" max="5" width="9.625" style="9"/>
-    <col min="6" max="16379" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="16.6296296296296" style="9" customWidth="1"/>
+    <col min="3" max="5" width="9.62962962962963" style="8"/>
+    <col min="6" max="16379" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" ht="27" customHeight="1" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="12">
+        <v>504.35</v>
+      </c>
+      <c r="C2" s="13">
+        <v>51.54</v>
+      </c>
+      <c r="D2" s="13">
+        <v>12.47</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="F2" s="13">
+        <v>32.97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="13">
-        <v>504.35</v>
-      </c>
-      <c r="C3" s="14">
-        <v>51.54</v>
-      </c>
-      <c r="D3" s="14">
-        <v>12.47</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1.03</v>
-      </c>
-      <c r="F3" s="14">
-        <v>32.97</v>
+      <c r="A3" s="12">
+        <v>1991</v>
+      </c>
+      <c r="B3" s="12">
+        <v>474.29</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44.08</v>
+      </c>
+      <c r="D3" s="13">
+        <v>11.25</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2.24</v>
+      </c>
+      <c r="F3" s="13">
+        <v>42.43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13">
-        <v>1991</v>
-      </c>
-      <c r="B4" s="13">
-        <v>474.29</v>
-      </c>
-      <c r="C4" s="14">
-        <v>44.08</v>
-      </c>
-      <c r="D4" s="14">
-        <v>11.25</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2.24</v>
-      </c>
-      <c r="F4" s="14">
-        <v>42.43</v>
+      <c r="A4" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B4" s="9">
+        <v>499.29</v>
+      </c>
+      <c r="C4" s="13">
+        <v>42.53</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="F4" s="13">
+        <v>47.82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
-        <v>1992</v>
-      </c>
-      <c r="B5" s="10">
-        <v>499.29</v>
-      </c>
-      <c r="C5" s="14">
-        <v>42.53</v>
-      </c>
-      <c r="D5" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.85</v>
-      </c>
-      <c r="F5" s="14">
-        <v>47.82</v>
+      <c r="A5" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="9">
+        <v>559.98</v>
+      </c>
+      <c r="C5" s="13">
+        <v>38.57</v>
+      </c>
+      <c r="D5" s="13">
+        <v>8.69</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>51.74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
-        <v>1993</v>
-      </c>
-      <c r="B6" s="10">
-        <v>559.98</v>
-      </c>
-      <c r="C6" s="14">
-        <v>38.57</v>
-      </c>
-      <c r="D6" s="14">
-        <v>8.69</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <v>51.74</v>
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="9">
+        <v>625.38</v>
+      </c>
+      <c r="C6" s="13">
+        <v>40.27</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8.24</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>50.19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
-        <v>1994</v>
-      </c>
-      <c r="B7" s="10">
-        <v>625.38</v>
-      </c>
-      <c r="C7" s="14">
-        <v>40.27</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="A7" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="9">
+        <v>687.71</v>
+      </c>
+      <c r="C7" s="13">
+        <v>41.64</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8.42</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.13</v>
+      </c>
+      <c r="F7" s="13">
+        <v>48.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="9">
+        <v>698.25</v>
+      </c>
+      <c r="C8" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8.57</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2.07</v>
+      </c>
+      <c r="F8" s="13">
+        <v>48.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="9">
+        <v>706.78</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45.45</v>
+      </c>
+      <c r="D9" s="13">
+        <v>19.15</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.77</v>
+      </c>
+      <c r="F9" s="13">
+        <v>31.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="9">
+        <v>738.88</v>
+      </c>
+      <c r="C10" s="13">
+        <v>39.78</v>
+      </c>
+      <c r="D10" s="13">
+        <v>17.92</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="9">
+        <v>938.68</v>
+      </c>
+      <c r="C11" s="13">
+        <v>37.29</v>
+      </c>
+      <c r="D11" s="13">
+        <v>16.84</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4.38</v>
+      </c>
+      <c r="F11" s="13">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="9">
+        <v>897.23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>30.18</v>
+      </c>
+      <c r="D12" s="13">
+        <v>18.96</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.83</v>
+      </c>
+      <c r="F12" s="13">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="9">
+        <v>939.33</v>
+      </c>
+      <c r="C13" s="13">
+        <v>28.02</v>
+      </c>
+      <c r="D13" s="13">
+        <v>18.05</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7.52</v>
+      </c>
+      <c r="F13" s="13">
+        <v>46.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1018.83</v>
+      </c>
+      <c r="C14" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="D14" s="13">
+        <v>15.77</v>
+      </c>
+      <c r="E14" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="F14" s="13">
+        <v>44.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1122.7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>28.72</v>
+      </c>
+      <c r="D15" s="13">
+        <v>13.47</v>
+      </c>
+      <c r="E15" s="13">
+        <v>15.07</v>
+      </c>
+      <c r="F15" s="13">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1364.38</v>
+      </c>
+      <c r="C16" s="13">
+        <v>27.56</v>
+      </c>
+      <c r="D16" s="13">
+        <v>14.07</v>
+      </c>
+      <c r="E16" s="13">
+        <v>15.79</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1830.48</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44.2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>8.63</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8</v>
+      </c>
+      <c r="F17" s="13">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2085.84</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45.18</v>
+      </c>
+      <c r="D18" s="13">
+        <v>7.75</v>
+      </c>
+      <c r="E18" s="13">
+        <v>8.46</v>
+      </c>
+      <c r="F18" s="13">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2295.91</v>
+      </c>
+      <c r="C19" s="13">
+        <v>47.56</v>
+      </c>
+      <c r="D19" s="13">
+        <v>8.09</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8.29</v>
+      </c>
+      <c r="F19" s="13">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2497.74</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43.72</v>
+      </c>
+      <c r="D20" s="13">
+        <v>8.95</v>
+      </c>
+      <c r="E20" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>35.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2573.44</v>
+      </c>
+      <c r="C21" s="13">
+        <v>42.99</v>
+      </c>
+      <c r="D21" s="13">
+        <v>7.79</v>
+      </c>
+      <c r="E21" s="13">
+        <v>12.69</v>
+      </c>
+      <c r="F21" s="13">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2814.57</v>
+      </c>
+      <c r="C22" s="13">
+        <v>34.14</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7.61</v>
+      </c>
+      <c r="E22" s="13">
+        <v>11.21</v>
+      </c>
+      <c r="F22" s="13">
+        <v>47.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3145.28</v>
+      </c>
+      <c r="C23" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="D23" s="13">
+        <v>10.68</v>
+      </c>
+      <c r="E23" s="13">
+        <v>12.97</v>
+      </c>
+      <c r="F23" s="13">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3475.88</v>
+      </c>
+      <c r="C24" s="13">
+        <v>31.43</v>
+      </c>
+      <c r="D24" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="E24" s="13">
+        <v>14.6</v>
+      </c>
+      <c r="F24" s="13">
+        <v>44.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3768.16</v>
+      </c>
+      <c r="C25" s="13">
+        <v>31.67</v>
+      </c>
+      <c r="D25" s="13">
         <v>8.24</v>
       </c>
-      <c r="E7" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="14">
-        <v>50.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10">
-        <v>1995</v>
-      </c>
-      <c r="B8" s="10">
-        <v>687.71</v>
-      </c>
-      <c r="C8" s="14">
-        <v>41.64</v>
-      </c>
-      <c r="D8" s="14">
-        <v>8.42</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1.13</v>
-      </c>
-      <c r="F8" s="14">
-        <v>48.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10">
-        <v>1996</v>
-      </c>
-      <c r="B9" s="10">
-        <v>698.25</v>
-      </c>
-      <c r="C9" s="14">
-        <v>40.75</v>
-      </c>
-      <c r="D9" s="14">
-        <v>8.57</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2.07</v>
-      </c>
-      <c r="F9" s="14">
-        <v>48.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="10">
-        <v>706.78</v>
-      </c>
-      <c r="C10" s="14">
-        <v>45.45</v>
-      </c>
-      <c r="D10" s="14">
-        <v>19.15</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3.77</v>
-      </c>
-      <c r="F10" s="14">
-        <v>31.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10">
-        <v>1998</v>
-      </c>
-      <c r="B11" s="10">
-        <v>738.88</v>
-      </c>
-      <c r="C11" s="14">
-        <v>39.78</v>
-      </c>
-      <c r="D11" s="14">
-        <v>17.92</v>
-      </c>
-      <c r="E11" s="14">
-        <v>4.4</v>
-      </c>
-      <c r="F11" s="14">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B12" s="10">
-        <v>938.68</v>
-      </c>
-      <c r="C12" s="14">
-        <v>37.29</v>
-      </c>
-      <c r="D12" s="14">
-        <v>16.84</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.38</v>
-      </c>
-      <c r="F12" s="14">
-        <v>41.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="10">
-        <v>897.23</v>
-      </c>
-      <c r="C13" s="14">
-        <v>30.18</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18.96</v>
-      </c>
-      <c r="E13" s="14">
-        <v>4.83</v>
-      </c>
-      <c r="F13" s="14">
-        <v>46.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B14" s="10">
-        <v>939.33</v>
-      </c>
-      <c r="C14" s="14">
-        <v>28.02</v>
-      </c>
-      <c r="D14" s="14">
-        <v>18.05</v>
-      </c>
-      <c r="E14" s="14">
-        <v>7.52</v>
-      </c>
-      <c r="F14" s="14">
-        <v>46.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1018.83</v>
-      </c>
-      <c r="C15" s="14">
-        <v>26.42</v>
-      </c>
-      <c r="D15" s="14">
-        <v>15.77</v>
-      </c>
-      <c r="E15" s="14">
-        <v>13.25</v>
-      </c>
-      <c r="F15" s="14">
-        <v>44.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1122.7</v>
-      </c>
-      <c r="C16" s="14">
-        <v>28.72</v>
-      </c>
-      <c r="D16" s="14">
-        <v>13.47</v>
-      </c>
-      <c r="E16" s="14">
-        <v>15.07</v>
-      </c>
-      <c r="F16" s="14">
-        <v>42.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1364.38</v>
-      </c>
-      <c r="C17" s="14">
-        <v>27.56</v>
-      </c>
-      <c r="D17" s="14">
-        <v>14.07</v>
-      </c>
-      <c r="E17" s="14">
-        <v>15.79</v>
-      </c>
-      <c r="F17" s="14">
-        <v>42.58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1830.48</v>
-      </c>
-      <c r="C18" s="14">
-        <v>44.2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>8.63</v>
-      </c>
-      <c r="E18" s="14">
-        <v>8</v>
-      </c>
-      <c r="F18" s="14">
-        <v>39.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2085.84</v>
-      </c>
-      <c r="C19" s="14">
-        <v>45.18</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7.75</v>
-      </c>
-      <c r="E19" s="14">
-        <v>8.46</v>
-      </c>
-      <c r="F19" s="14">
-        <v>38.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2295.91</v>
-      </c>
-      <c r="C20" s="14">
-        <v>47.56</v>
-      </c>
-      <c r="D20" s="14">
-        <v>8.09</v>
-      </c>
-      <c r="E20" s="14">
-        <v>8.29</v>
-      </c>
-      <c r="F20" s="14">
-        <v>36.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B21" s="10">
-        <v>2497.74</v>
-      </c>
-      <c r="C21" s="14">
-        <v>43.72</v>
-      </c>
-      <c r="D21" s="14">
-        <v>8.95</v>
-      </c>
-      <c r="E21" s="14">
-        <v>12.2</v>
-      </c>
-      <c r="F21" s="14">
-        <v>35.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="10">
-        <v>2573.44</v>
-      </c>
-      <c r="C22" s="14">
-        <v>42.99</v>
-      </c>
-      <c r="D22" s="14">
-        <v>7.79</v>
-      </c>
-      <c r="E22" s="14">
-        <v>12.69</v>
-      </c>
-      <c r="F22" s="14">
-        <v>36.53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B23" s="10">
-        <v>2814.57</v>
-      </c>
-      <c r="C23" s="14">
-        <v>34.14</v>
-      </c>
-      <c r="D23" s="14">
-        <v>7.61</v>
-      </c>
-      <c r="E23" s="14">
-        <v>11.21</v>
-      </c>
-      <c r="F23" s="14">
-        <v>47.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B24" s="10">
-        <v>3145.28</v>
-      </c>
-      <c r="C24" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D24" s="14">
-        <v>10.68</v>
-      </c>
-      <c r="E24" s="14">
-        <v>12.97</v>
-      </c>
-      <c r="F24" s="14">
-        <v>47.77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B25" s="10">
-        <v>3475.88</v>
-      </c>
-      <c r="C25" s="14">
-        <v>31.43</v>
-      </c>
-      <c r="D25" s="14">
-        <v>9.4</v>
-      </c>
-      <c r="E25" s="14">
-        <v>14.6</v>
-      </c>
-      <c r="F25" s="14">
-        <v>44.57</v>
+      <c r="E25" s="13">
+        <v>13.95</v>
+      </c>
+      <c r="F25" s="13">
+        <v>46.14</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="10">
-        <v>3768.16</v>
-      </c>
-      <c r="C26" s="14">
-        <v>31.67</v>
-      </c>
-      <c r="D26" s="14">
-        <v>8.24</v>
-      </c>
-      <c r="E26" s="14">
-        <v>13.95</v>
-      </c>
-      <c r="F26" s="14">
-        <v>46.14</v>
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3991.7</v>
+      </c>
+      <c r="C26" s="13">
+        <v>29.77</v>
+      </c>
+      <c r="D26" s="13">
+        <v>8.21</v>
+      </c>
+      <c r="E26" s="13">
+        <v>12.86</v>
+      </c>
+      <c r="F26" s="13">
+        <v>49.16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="10">
-        <v>3991.7</v>
-      </c>
-      <c r="C27" s="14">
-        <v>29.77</v>
-      </c>
-      <c r="D27" s="14">
-        <v>8.21</v>
-      </c>
-      <c r="E27" s="14">
-        <v>12.86</v>
-      </c>
-      <c r="F27" s="14">
-        <v>49.16</v>
+      <c r="A27" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4134.11</v>
+      </c>
+      <c r="C27" s="13">
+        <v>32.53</v>
+      </c>
+      <c r="D27" s="13">
+        <v>8.52</v>
+      </c>
+      <c r="E27" s="13">
+        <v>14.28</v>
+      </c>
+      <c r="F27" s="13">
+        <v>44.67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="10">
-        <v>4134.11</v>
-      </c>
-      <c r="C28" s="14">
-        <v>32.53</v>
-      </c>
-      <c r="D28" s="14">
-        <v>8.52</v>
-      </c>
-      <c r="E28" s="14">
-        <v>14.28</v>
-      </c>
-      <c r="F28" s="14">
-        <v>44.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A28" s="9">
         <v>2016</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B28" s="9">
         <v>4110.51</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C28" s="13">
         <v>36.2786374063113</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D28" s="13">
         <v>9.92149074641671</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E28" s="13">
         <v>14.9651387853719</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F28" s="13">
         <v>38.83</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2549,21 +2462,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ32" sqref="AQ32"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="$A59:$XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="3" customWidth="1"/>
     <col min="2" max="51" width="6.25" style="3" customWidth="1"/>
-    <col min="52" max="52" width="12.625" style="4"/>
+    <col min="52" max="52" width="12.6296296296296" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -2571,157 +2484,157 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:52">
@@ -2767,9 +2680,7 @@
       <c r="N2" s="3">
         <v>1064.69999814034</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3">
         <v>1141.89999580383</v>
       </c>
@@ -2919,9 +2830,7 @@
       <c r="N3" s="3">
         <v>1942.69999694824</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="3">
         <v>2064.59999847412</v>
       </c>
@@ -3075,18 +2984,14 @@
       <c r="N4" s="3">
         <v>1916.80000543594</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3">
         <v>2027.50000119209</v>
       </c>
       <c r="Q4" s="3">
         <v>2361.29999828339</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R4" s="3"/>
       <c r="S4" s="3">
         <v>1734.80000114441</v>
       </c>
@@ -3222,18 +3127,14 @@
       <c r="N5" s="3">
         <v>1754</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3">
         <v>1890.80000662804</v>
       </c>
       <c r="Q5" s="3">
         <v>2274.5000026226</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R5" s="3"/>
       <c r="S5" s="3">
         <v>1819.59999394417</v>
       </c>
@@ -3369,18 +3270,14 @@
       <c r="N6" s="3">
         <v>1874.70001029968</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3">
         <v>1932.1000020504</v>
       </c>
       <c r="Q6" s="3">
         <v>2228.3999979496</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R6" s="3"/>
       <c r="S6" s="3">
         <v>1718.00000143051</v>
       </c>
@@ -3516,18 +3413,14 @@
       <c r="N7" s="3">
         <v>1598.70000576973</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3">
         <v>1759.19999790192</v>
       </c>
       <c r="Q7" s="3">
         <v>2053.99999403954</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R7" s="3"/>
       <c r="S7" s="3">
         <v>1542.80000329018</v>
       </c>
@@ -3666,18 +3559,14 @@
       <c r="N8" s="3">
         <v>1848.69999718666</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3">
         <v>2043.80000138283</v>
       </c>
       <c r="Q8" s="3">
         <v>2341.69999098778</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R8" s="3"/>
       <c r="S8" s="3">
         <v>1944.30000114441</v>
       </c>
@@ -3816,18 +3705,14 @@
       <c r="N9" s="3">
         <v>1880.70000123978</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3">
         <v>2087.49999475479</v>
       </c>
       <c r="Q9" s="3">
         <v>2295.00000667572</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R9" s="3"/>
       <c r="S9" s="3">
         <v>1991.80000829697</v>
       </c>
@@ -3969,18 +3854,14 @@
       <c r="N10" s="3">
         <v>1531.70000314713</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3">
         <v>1686.39999842644</v>
       </c>
       <c r="Q10" s="3">
         <v>1989.90000200272</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3">
         <v>1650.59999799728</v>
       </c>
@@ -4122,18 +4003,14 @@
       <c r="N11" s="3">
         <v>1810.80000424385</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="3">
         <v>2040.60000443459</v>
       </c>
       <c r="Q11" s="3">
         <v>2244.20000433922</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R11" s="3"/>
       <c r="S11" s="3">
         <v>1884.60000777245</v>
       </c>
@@ -4275,18 +4152,14 @@
       <c r="N12" s="3">
         <v>1642.59999704361</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3">
         <v>1763.40000486374</v>
       </c>
       <c r="Q12" s="3">
         <v>2167.90000557899</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R12" s="3"/>
       <c r="S12" s="3">
         <v>1700.89999818802</v>
       </c>
@@ -4428,18 +4301,14 @@
       <c r="N13" s="3">
         <v>1539.19999504089</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3">
         <v>1677.60000419617</v>
       </c>
       <c r="Q13" s="3">
         <v>1921.49999785423</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R13" s="3"/>
       <c r="S13" s="3">
         <v>1645.00000047684</v>
       </c>
@@ -4581,18 +4450,14 @@
       <c r="N14" s="3">
         <v>1574.49999284744</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="3">
         <v>1745.40000319481</v>
       </c>
       <c r="Q14" s="3">
         <v>2063.00000524521</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R14" s="3"/>
       <c r="S14" s="3">
         <v>1653.70000338554</v>
       </c>
@@ -4734,18 +4599,14 @@
       <c r="N15" s="3">
         <v>1732.00000333786</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O15" s="3"/>
       <c r="P15" s="3">
         <v>1892.40000224113</v>
       </c>
       <c r="Q15" s="3">
         <v>2248.00000452995</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R15" s="3"/>
       <c r="S15" s="3">
         <v>1871.59999966621</v>
       </c>
@@ -4887,18 +4748,14 @@
       <c r="N16" s="3">
         <v>1700.49999713898</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O16" s="3"/>
       <c r="P16" s="3">
         <v>1833.10000109673</v>
       </c>
       <c r="Q16" s="3">
         <v>2214.49999928474</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="R16" s="3"/>
       <c r="S16" s="3">
         <v>1773.29999542236</v>
       </c>
@@ -5040,9 +4897,7 @@
       <c r="N17" s="3">
         <v>1778.90000510216</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="3">
         <v>1913.79999780655</v>
       </c>
@@ -5196,9 +5051,7 @@
       <c r="N18" s="3">
         <v>1754.49999690056</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O18" s="3"/>
       <c r="P18" s="3">
         <v>1932.89999437332</v>
       </c>
@@ -5352,9 +5205,7 @@
       <c r="N19" s="3">
         <v>1771.59999632835</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O19" s="3"/>
       <c r="P19" s="3">
         <v>1997.49999141693</v>
       </c>
@@ -5508,9 +5359,7 @@
       <c r="N20" s="3">
         <v>1544.79999351501</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O20" s="3"/>
       <c r="P20" s="3">
         <v>1725.29999446869</v>
       </c>
@@ -5664,9 +5513,7 @@
       <c r="N21" s="3">
         <v>1622.99999952316</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="O21" s="3"/>
       <c r="P21" s="3">
         <v>1813.60000228882</v>
       </c>
@@ -11634,215 +11481,6 @@
       <c r="AZ58" s="4">
         <f t="shared" si="0"/>
         <v>1604.28000199795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:52">
-      <c r="A59" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="3">
-        <f t="shared" ref="B59:N59" si="1">LINEST(B3:B58)*10</f>
-        <v>-146.053348811049</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="1"/>
-        <v>-56.2543061926032</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="1"/>
-        <v>-88.3223175002703</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="1"/>
-        <v>-60.5384134952932</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="1"/>
-        <v>-71.7094668340623</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="1"/>
-        <v>-112.473240167982</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="1"/>
-        <v>-115.098188583849</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="1"/>
-        <v>-115.319788078209</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="1"/>
-        <v>-110.685167014477</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="1"/>
-        <v>-68.3506838819059</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="1"/>
-        <v>-80.7779214995734</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="1"/>
-        <v>-132.707792109361</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="1"/>
-        <v>-77.3000001504832</v>
-      </c>
-      <c r="O59" s="3">
-        <f>LINEST(O22:O58)*10</f>
-        <v>-64.7316273206092</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" ref="P59:Z59" si="2">LINEST(P3:P58)*10</f>
-        <v>-64.9502735080089</v>
-      </c>
-      <c r="Q59" s="3">
-        <f t="shared" si="2"/>
-        <v>-88.3111413085779</v>
-      </c>
-      <c r="R59" s="3">
-        <f>LINEST(R17:R58)*10</f>
-        <v>-61.736406425865</v>
-      </c>
-      <c r="S59" s="3">
-        <f t="shared" si="2"/>
-        <v>-74.2314419473431</v>
-      </c>
-      <c r="T59" s="3">
-        <f t="shared" si="2"/>
-        <v>-112.691148492057</v>
-      </c>
-      <c r="U59" s="3">
-        <f t="shared" si="2"/>
-        <v>-140.699453191486</v>
-      </c>
-      <c r="V59" s="3">
-        <f t="shared" si="2"/>
-        <v>-125.402153540782</v>
-      </c>
-      <c r="W59" s="3">
-        <f t="shared" si="2"/>
-        <v>-32.4447022805217</v>
-      </c>
-      <c r="X59" s="3">
-        <f t="shared" si="2"/>
-        <v>-59.7443265987438</v>
-      </c>
-      <c r="Y59" s="3">
-        <f t="shared" si="2"/>
-        <v>-127.720027373494</v>
-      </c>
-      <c r="Z59" s="3">
-        <f t="shared" si="2"/>
-        <v>-67.4336637292754</v>
-      </c>
-      <c r="AA59" s="3">
-        <f>LINEST(AA30:AA58)*10</f>
-        <v>-22.1650246223199</v>
-      </c>
-      <c r="AB59" s="3">
-        <f t="shared" ref="AB59:AL59" si="3">LINEST(AB3:AB58)*10</f>
-        <v>-47.0165754071021</v>
-      </c>
-      <c r="AC59" s="3">
-        <f t="shared" si="3"/>
-        <v>-68.1978126536961</v>
-      </c>
-      <c r="AD59" s="3">
-        <f t="shared" si="3"/>
-        <v>-78.8150718876212</v>
-      </c>
-      <c r="AE59" s="3">
-        <f t="shared" si="3"/>
-        <v>-66.8873892118892</v>
-      </c>
-      <c r="AF59" s="3">
-        <f t="shared" si="3"/>
-        <v>-44.9642175720392</v>
-      </c>
-      <c r="AG59" s="3">
-        <f t="shared" si="3"/>
-        <v>-184.747163688737</v>
-      </c>
-      <c r="AH59" s="3">
-        <f t="shared" si="3"/>
-        <v>-64.4663022870652</v>
-      </c>
-      <c r="AI59" s="3">
-        <f t="shared" si="3"/>
-        <v>-109.226520406735</v>
-      </c>
-      <c r="AJ59" s="3">
-        <f t="shared" si="3"/>
-        <v>-50.7535542811096</v>
-      </c>
-      <c r="AK59" s="3">
-        <f t="shared" si="3"/>
-        <v>-84.924914224296</v>
-      </c>
-      <c r="AL59" s="3">
-        <f t="shared" si="3"/>
-        <v>-83.0002392444075</v>
-      </c>
-      <c r="AM59" s="3">
-        <f>LINEST(AM9:AM58)*10</f>
-        <v>-103.553085125651</v>
-      </c>
-      <c r="AN59" s="3">
-        <f t="shared" ref="AN59:AS59" si="4">LINEST(AN3:AN58)*10</f>
-        <v>-90.5375256285794</v>
-      </c>
-      <c r="AO59" s="3">
-        <f t="shared" si="4"/>
-        <v>-68.6708137718526</v>
-      </c>
-      <c r="AP59" s="3">
-        <f t="shared" si="4"/>
-        <v>-67.2089882892692</v>
-      </c>
-      <c r="AQ59" s="3">
-        <f t="shared" si="4"/>
-        <v>-106.083321719322</v>
-      </c>
-      <c r="AR59" s="3">
-        <f t="shared" si="4"/>
-        <v>-88.6232735733416</v>
-      </c>
-      <c r="AS59" s="3">
-        <f t="shared" si="4"/>
-        <v>-78.4592617218912</v>
-      </c>
-      <c r="AT59" s="3">
-        <f>LINEST(AT17:AT58)*10</f>
-        <v>-83.6912733037749</v>
-      </c>
-      <c r="AU59" s="3">
-        <f t="shared" ref="AU59:AX59" si="5">LINEST(AU3:AU58)*10</f>
-        <v>-78.6607313485321</v>
-      </c>
-      <c r="AV59" s="3">
-        <f t="shared" si="5"/>
-        <v>44.2365689299643</v>
-      </c>
-      <c r="AW59" s="3">
-        <f t="shared" si="5"/>
-        <v>-92.5307245393852</v>
-      </c>
-      <c r="AX59" s="3">
-        <f t="shared" si="5"/>
-        <v>-85.0644564142149</v>
-      </c>
-      <c r="AY59" s="3">
-        <f>LINEST(AY7:AY58)*10</f>
-        <v>-53.0565609635174</v>
-      </c>
-      <c r="AZ59" s="8">
-        <f>LINEST(AZ3:AZ58)*10</f>
-        <v>-83.7189245136958</v>
       </c>
     </row>
   </sheetData>
@@ -11854,21 +11492,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU51" sqref="AU51"/>
+      <selection pane="bottomRight" activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="3" customWidth="1"/>
     <col min="2" max="51" width="6.25" style="3" customWidth="1"/>
-    <col min="52" max="52" width="12.625" style="4"/>
+    <col min="52" max="52" width="12.6296296296296" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -11876,157 +11514,157 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:52">
@@ -12073,7 +11711,7 @@
         <v>2406.70000171661</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P2" s="3">
         <v>2497.9000043869</v>
@@ -12228,7 +11866,7 @@
         <v>4307.89999389648</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P3" s="3">
         <v>4442.09999847412</v>
@@ -12385,7 +12023,7 @@
         <v>4273.20000553131</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P4" s="3">
         <v>4396.19999885559</v>
@@ -12394,7 +12032,7 @@
         <v>4737.60000610352</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S4" s="3">
         <v>4097.80000591278</v>
@@ -12536,7 +12174,7 @@
         <v>4088.60000324249</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P5" s="3">
         <v>4243.60000610352</v>
@@ -12545,7 +12183,7 @@
         <v>4649.00000667572</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S5" s="3">
         <v>4162.09998512268</v>
@@ -12687,7 +12325,7 @@
         <v>4236.50000572205</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P6" s="3">
         <v>4304.00001335144</v>
@@ -12696,7 +12334,7 @@
         <v>4603.5</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S6" s="3">
         <v>4073.19999885559</v>
@@ -12838,7 +12476,7 @@
         <v>3960.5000038147</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P7" s="3">
         <v>4131.29999732971</v>
@@ -12847,7 +12485,7 @@
         <v>4432.99999523163</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S7" s="3">
         <v>3918.50000667572</v>
@@ -12991,7 +12629,7 @@
         <v>4223.9999961853</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P8" s="3">
         <v>4422.0999879837</v>
@@ -13000,7 +12638,7 @@
         <v>4720.69999408722</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S8" s="3">
         <v>4322.6999912262</v>
@@ -13144,7 +12782,7 @@
         <v>4264.60000133514</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9" s="3">
         <v>4476.30000019073</v>
@@ -13153,7 +12791,7 @@
         <v>4686.99999332428</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S9" s="3">
         <v>4382.90000343323</v>
@@ -13299,7 +12937,7 @@
         <v>3846.40001773834</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P10" s="3">
         <v>4028.6999912262</v>
@@ -13308,7 +12946,7 @@
         <v>4353.29999160767</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S10" s="3">
         <v>3993.60000133514</v>
@@ -13454,7 +13092,7 @@
         <v>4177.20000171661</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P11" s="3">
         <v>4413.19999885559</v>
@@ -13463,7 +13101,7 @@
         <v>4622.70000648499</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S11" s="3">
         <v>4261.10000705719</v>
@@ -13609,7 +13247,7 @@
         <v>3984.40000915527</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P12" s="3">
         <v>4126.69999885559</v>
@@ -13618,7 +13256,7 @@
         <v>4544.20000553131</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S12" s="3">
         <v>4066.09999656677</v>
@@ -13764,7 +13402,7 @@
         <v>3912.59999275208</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P13" s="3">
         <v>4062.9000120163</v>
@@ -13773,7 +13411,7 @@
         <v>4313.29999828339</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S13" s="3">
         <v>4027.69999504089</v>
@@ -13919,7 +13557,7 @@
         <v>3916.69999790192</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P14" s="3">
         <v>4107.49999809265</v>
@@ -13928,7 +13566,7 @@
         <v>4435.69997882843</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S14" s="3">
         <v>4011.00001049042</v>
@@ -14074,7 +13712,7 @@
         <v>4087.60000801086</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P15" s="3">
         <v>4258.79998397827</v>
@@ -14083,7 +13721,7 @@
         <v>4626.79999542236</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S15" s="3">
         <v>4243.99997615814</v>
@@ -14229,7 +13867,7 @@
         <v>4068.19998645782</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P16" s="3">
         <v>4207.9000005722</v>
@@ -14238,7 +13876,7 @@
         <v>4593.19999313354</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S16" s="3">
         <v>4150.70000743866</v>
@@ -14384,7 +14022,7 @@
         <v>4159.80001163483</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P17" s="3">
         <v>4301.00000190735</v>
@@ -14541,7 +14179,7 @@
         <v>4120.89999294281</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P18" s="3">
         <v>4308.70000743866</v>
@@ -14698,7 +14336,7 @@
         <v>4116.59999465942</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P19" s="3">
         <v>4358.69999694824</v>
@@ -14855,7 +14493,7 @@
         <v>3905.59999847412</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P20" s="3">
         <v>4099.39999485016</v>
@@ -15012,7 +14650,7 @@
         <v>3994.29999923706</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P21" s="3">
         <v>4198.29999542236</v>
@@ -17331,7 +16969,7 @@
         <v>3876.60000419617</v>
       </c>
       <c r="AZ35" s="4">
-        <f t="shared" ref="AZ35:AZ58" si="1">AVERAGE(B35:AY35)</f>
+        <f>AVERAGE(B35:AY35)</f>
         <v>4239.6039991188</v>
       </c>
     </row>
@@ -17490,7 +17128,7 @@
         <v>3966.60000610352</v>
       </c>
       <c r="AZ36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AZ35:AZ58" si="1">AVERAGE(B36:AY36)</f>
         <v>4444.11200057983</v>
       </c>
     </row>
@@ -20990,215 +20628,6 @@
       <c r="AZ58" s="4">
         <f t="shared" si="1"/>
         <v>3948.2459992981</v>
-      </c>
-    </row>
-    <row r="59" spans="1:52">
-      <c r="A59" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="3">
-        <f>LINEST(B3:B58)*10</f>
-        <v>-150.558578738918</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" ref="C59:AH59" si="2">LINEST(C3:C58)*10</f>
-        <v>-56.6658238318385</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="2"/>
-        <v>-88.2860562392305</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="2"/>
-        <v>-60.4953504889613</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="2"/>
-        <v>-72.357279488426</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="2"/>
-        <v>-106.2799383859</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="2"/>
-        <v>-116.873922525655</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="2"/>
-        <v>-120.917224359284</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="2"/>
-        <v>-110.69596732062</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="2"/>
-        <v>-68.4363639258556</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="2"/>
-        <v>-81.5755308497383</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="2"/>
-        <v>-141.733253819928</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="2"/>
-        <v>-84.0994530789916</v>
-      </c>
-      <c r="O59" s="3">
-        <f>LINEST(O22:O58)*10</f>
-        <v>-71.5915138023959</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" si="2"/>
-        <v>-67.3225563903908</v>
-      </c>
-      <c r="Q59" s="3">
-        <f t="shared" si="2"/>
-        <v>-90.3700948123325</v>
-      </c>
-      <c r="R59" s="3">
-        <f>LINEST(R17:R58)*10</f>
-        <v>-29.427841167358</v>
-      </c>
-      <c r="S59" s="3">
-        <f t="shared" si="2"/>
-        <v>-77.7283663397696</v>
-      </c>
-      <c r="T59" s="3">
-        <f t="shared" si="2"/>
-        <v>-119.151947412276</v>
-      </c>
-      <c r="U59" s="3">
-        <f t="shared" si="2"/>
-        <v>-150.262132201386</v>
-      </c>
-      <c r="V59" s="3">
-        <f t="shared" si="2"/>
-        <v>-131.530895761163</v>
-      </c>
-      <c r="W59" s="3">
-        <f t="shared" si="2"/>
-        <v>-36.447026718828</v>
-      </c>
-      <c r="X59" s="3">
-        <f t="shared" si="2"/>
-        <v>-70.9672596791953</v>
-      </c>
-      <c r="Y59" s="3">
-        <f t="shared" si="2"/>
-        <v>-135.886567954404</v>
-      </c>
-      <c r="Z59" s="3">
-        <f t="shared" si="2"/>
-        <v>-83.6063578707329</v>
-      </c>
-      <c r="AA59" s="3">
-        <f>LINEST(AA30:AA58)*10</f>
-        <v>15.6453203144897</v>
-      </c>
-      <c r="AB59" s="3">
-        <f t="shared" si="2"/>
-        <v>-60.5096030114695</v>
-      </c>
-      <c r="AC59" s="3">
-        <f t="shared" si="2"/>
-        <v>-69.0895755836907</v>
-      </c>
-      <c r="AD59" s="3">
-        <f t="shared" si="2"/>
-        <v>-78.9528021906959</v>
-      </c>
-      <c r="AE59" s="3">
-        <f t="shared" si="2"/>
-        <v>-67.6186598144162</v>
-      </c>
-      <c r="AF59" s="3">
-        <f t="shared" si="2"/>
-        <v>-46.3478481047624</v>
-      </c>
-      <c r="AG59" s="3">
-        <f t="shared" si="2"/>
-        <v>-186.473444789384</v>
-      </c>
-      <c r="AH59" s="3">
-        <f t="shared" si="2"/>
-        <v>-80.3711550211304</v>
-      </c>
-      <c r="AI59" s="3">
-        <f t="shared" ref="AI59:AZ59" si="3">LINEST(AI3:AI58)*10</f>
-        <v>-109.419241393499</v>
-      </c>
-      <c r="AJ59" s="3">
-        <f t="shared" si="3"/>
-        <v>-64.892686103682</v>
-      </c>
-      <c r="AK59" s="3">
-        <f t="shared" si="3"/>
-        <v>-96.4450778736289</v>
-      </c>
-      <c r="AL59" s="3">
-        <f t="shared" si="3"/>
-        <v>-82.9380384374777</v>
-      </c>
-      <c r="AM59" s="3">
-        <f>LINEST(AM9:AM58)*10</f>
-        <v>-103.640239035524</v>
-      </c>
-      <c r="AN59" s="3">
-        <f t="shared" si="3"/>
-        <v>-90.6859533159356</v>
-      </c>
-      <c r="AO59" s="3">
-        <f t="shared" si="3"/>
-        <v>-50.260834105929</v>
-      </c>
-      <c r="AP59" s="3">
-        <f t="shared" si="3"/>
-        <v>-68.6362280516446</v>
-      </c>
-      <c r="AQ59" s="3">
-        <f t="shared" si="3"/>
-        <v>-106.021120383979</v>
-      </c>
-      <c r="AR59" s="3">
-        <f t="shared" si="3"/>
-        <v>-88.9964802576431</v>
-      </c>
-      <c r="AS59" s="3">
-        <f t="shared" si="3"/>
-        <v>-78.1922757089424</v>
-      </c>
-      <c r="AT59" s="3">
-        <f>LINEST(AT17:AT58)*10</f>
-        <v>-84.0062399708783</v>
-      </c>
-      <c r="AU59" s="3">
-        <f t="shared" si="3"/>
-        <v>-78.5839027850007</v>
-      </c>
-      <c r="AV59" s="3">
-        <f t="shared" si="3"/>
-        <v>44.5818861324489</v>
-      </c>
-      <c r="AW59" s="3">
-        <f t="shared" si="3"/>
-        <v>-88.9995910872031</v>
-      </c>
-      <c r="AX59" s="3">
-        <f t="shared" si="3"/>
-        <v>-88.5006834168346</v>
-      </c>
-      <c r="AY59" s="3">
-        <f>LINEST(AY7:AY58)*10</f>
-        <v>-53.3435063808702</v>
-      </c>
-      <c r="AZ59" s="8">
-        <f t="shared" si="3"/>
-        <v>-85.8773362961929</v>
       </c>
     </row>
   </sheetData>
@@ -21212,29 +20641,29 @@
   <sheetPr/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>51886</v>
@@ -21243,9 +20672,9 @@
         <v>-146.053348811049</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>52602</v>
@@ -21254,9 +20683,9 @@
         <v>-56.2543061926032</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>52633</v>
@@ -21265,9 +20694,9 @@
         <v>-88.3223175002709</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>52645</v>
@@ -21276,9 +20705,9 @@
         <v>-60.5384134952945</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>52657</v>
@@ -21287,9 +20716,9 @@
         <v>-71.7094668340615</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>52707</v>
@@ -21298,9 +20727,9 @@
         <v>-112.473240167982</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>52713</v>
@@ -21309,9 +20738,9 @@
         <v>-115.098188583849</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>52737</v>
@@ -21320,9 +20749,9 @@
         <v>-115.319788078208</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>52745</v>
@@ -21331,9 +20760,9 @@
         <v>-110.685167014477</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>52754</v>
@@ -21342,9 +20771,9 @@
         <v>-68.3506838819057</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>52765</v>
@@ -21353,9 +20782,9 @@
         <v>-80.7779214995731</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>52818</v>
@@ -21364,9 +20793,9 @@
         <v>-132.707792109361</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>52825</v>
@@ -21375,9 +20804,9 @@
         <v>-77.300000150484</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>52833</v>
@@ -21386,9 +20815,9 @@
         <v>-64.7316273206084</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>52836</v>
@@ -21397,9 +20826,9 @@
         <v>-64.9502735080089</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>52842</v>
@@ -21408,9 +20837,9 @@
         <v>-88.311141308577</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>52853</v>
@@ -21419,9 +20848,9 @@
         <v>-61.7364064258637</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>52855</v>
@@ -21430,9 +20859,9 @@
         <v>-74.2314419473425</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>52856</v>
@@ -21441,9 +20870,9 @@
         <v>-112.691148492058</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>52862</v>
@@ -21452,9 +20881,9 @@
         <v>-140.699453191486</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>52863</v>
@@ -21463,9 +20892,9 @@
         <v>-125.402153540782</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>52866</v>
@@ -21474,9 +20903,9 @@
         <v>-32.4447022805212</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>52868</v>
@@ -21485,9 +20914,9 @@
         <v>-59.7443265987438</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>52869</v>
@@ -21496,9 +20925,9 @@
         <v>-127.720027373494</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>52874</v>
@@ -21507,9 +20936,9 @@
         <v>-67.4336637292751</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>52875</v>
@@ -21518,9 +20947,9 @@
         <v>-22.1650246223199</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>52876</v>
@@ -21529,9 +20958,9 @@
         <v>-47.0165754071021</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>52877</v>
@@ -21540,9 +20969,9 @@
         <v>-68.1978126536964</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>52908</v>
@@ -21551,9 +20980,9 @@
         <v>-78.8150718876212</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>52943</v>
@@ -21562,9 +20991,9 @@
         <v>-66.8873892118886</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>52955</v>
@@ -21573,9 +21002,9 @@
         <v>-44.9642175720398</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>52957</v>
@@ -21584,9 +21013,9 @@
         <v>-184.747163688736</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>52963</v>
@@ -21595,9 +21024,9 @@
         <v>-64.4663022870654</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>52968</v>
@@ -21606,9 +21035,9 @@
         <v>-109.226520406735</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>52972</v>
@@ -21617,9 +21046,9 @@
         <v>-50.7535542811094</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>52974</v>
@@ -21628,9 +21057,9 @@
         <v>-84.9249142242963</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>56004</v>
@@ -21639,9 +21068,9 @@
         <v>-83.0002392444069</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>56016</v>
@@ -21650,9 +21079,9 @@
         <v>-103.553085125652</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>56018</v>
@@ -21661,9 +21090,9 @@
         <v>-90.5375256285794</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>56021</v>
@@ -21672,9 +21101,9 @@
         <v>-68.6708137718514</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>56029</v>
@@ -21683,9 +21112,9 @@
         <v>-67.2089882892698</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>56033</v>
@@ -21694,9 +21123,9 @@
         <v>-106.083321719323</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>56034</v>
@@ -21705,9 +21134,9 @@
         <v>-88.6232735733422</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>56043</v>
@@ -21716,9 +21145,9 @@
         <v>-78.4592617218903</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>56045</v>
@@ -21727,9 +21156,9 @@
         <v>-83.6912733037744</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>56046</v>
@@ -21738,9 +21167,9 @@
         <v>-78.6607313485318</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>56065</v>
@@ -21749,9 +21178,9 @@
         <v>44.2365689299643</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>56067</v>
@@ -21760,9 +21189,9 @@
         <v>-92.5307245393852</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>56125</v>
@@ -21771,9 +21200,9 @@
         <v>-85.0644564142145</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
         <v>56151</v>
@@ -21783,13 +21212,9 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>-83.7189245136949</v>
-      </c>
+      <c r="C52" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:C52">
